--- a/va_facility_data_2025-02-20/Delray Beach VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Delray%20Beach%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Delray Beach VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Delray%20Beach%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rc8b0300668f146d5877429d4dedb1977"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rd6424fd9b95045c18f2efd02ea2d7842"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rbb2f29987d914df890d93924e799924c"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R9809cadd6f224491be2302b9e013b1d4"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R58948206522e46869ecb27de76b1ff48"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R0d5e08c01d534ecbb6c83bd843195816"/>
   </x:sheets>
 </x:workbook>
 </file>
